--- a/db/events.xlsx
+++ b/db/events.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csyers\Documents\Fall 2016\Database Concepts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csyers\Documents\Fall 2016\Database Concepts\Project Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5745"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="events" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -45,6 +45,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -76,7 +79,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,12 +397,12 @@
   <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2167,5 +2170,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>